--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519879</v>
+        <v>0.4108830721519877</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327807</v>
+        <v>0.1647362719327806</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846225</v>
+        <v>0.2192987281846224</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327806</v>
+        <v>0.1647362719327808</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807681</v>
+        <v>0.3638702225807678</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0.5256692707344185</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.3215706312231011</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -503,7 +514,10 @@
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.3777406617731509</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807678</v>
+        <v>0.3638702225807679</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.468209296615762</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519877</v>
+        <v>0.4108830721519875</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5256692707344185</v>
+        <v>0.525669270734418</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327808</v>
+        <v>0.1647362719327807</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3215706312231011</v>
+        <v>0.321570631223101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846224</v>
+        <v>0.2192987281846222</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731509</v>
+        <v>0.3777406617731504</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807679</v>
+        <v>0.3638702225807678</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.468209296615762</v>
+        <v>0.4682092966157618</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,16 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Modelo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
         </is>
       </c>
     </row>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327807</v>
+        <v>0.1647362719327806</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.321570631223101</v>
+        <v>0.3215706312231009</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846222</v>
+        <v>0.2192987281846224</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731504</v>
+        <v>0.3777406617731509</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807678</v>
+        <v>0.3638702225807679</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4682092966157618</v>
+        <v>0.468209296615762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H2" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="3">
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846224</v>
+        <v>0.2192987281846222</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731509</v>
+        <v>0.3777406617731504</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807679</v>
+        <v>0.3638702225807678</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.468209296615762</v>
+        <v>0.4682092966157618</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Enfermedades cardíacas.xlsx
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>0.9967802254222674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3215706312231009</v>
+        <v>0.321570631223101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846222</v>
+        <v>0.2192987281846224</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731504</v>
+        <v>0.3777406617731509</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
